--- a/API_Test/Demo/jiekou.xlsx
+++ b/API_Test/Demo/jiekou.xlsx
@@ -5,22 +5,187 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LocalGit\github仓库\jiekou\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LocalGit\github仓库\API_Test\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD87C578-3F67-4F94-9C31-BEB5B8810ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6198006E-B5AC-4D93-AB91-B5135D956A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="汇总" sheetId="2" r:id="rId1"/>
+    <sheet name="新增接口" sheetId="5" r:id="rId2"/>
+    <sheet name="模块1" sheetId="3" r:id="rId3"/>
+    <sheet name="模块2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>qiuwei</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C86AFB06-0601-4B94-8490-22AAC0BA9C59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>qiuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>后缀说明
+_H:优先级高
+_M：优先级中等
+_L:优先级低</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E0FEE81F-2810-44B3-B645-ECDFF59299A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>qiuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>后缀session表示需要传登录认证信息，如token，cookie,脚本会自动切换代码分支
+2：后缀pass表示此条案例无需执行，如每次执行会新增数据的情况</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{434533D5-9133-46A1-A547-E9111D58ADE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>qiuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：键值间不能有空格
+2：键值对间可以换行可以有空格
+3：键对应的值为空时，用“”表示，不能用null
+对应字段值为空时，用“”表示
+4：严格按照JSON格式</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{7CEB5BE9-3EFB-496B-A218-48E457594C2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>qiuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>接口响应文本中包含的字符串</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
   <si>
     <t>用例编号</t>
   </si>
@@ -37,25 +202,6 @@
     <t>参数</t>
   </si>
   <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>接口模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试get接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -64,7 +210,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a=b</t>
+    <t>QIUWEI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.baidu.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://passport.baidu.com/v2/api/?login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_session</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -72,35 +250,834 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>QIUWEI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baidu.com/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://passport.baidu.com/v2/api/?login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试post接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://test-web.wind56.com/wind56apis/client/basClient/pageList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": 13628165081,"password":"8863200",
+"token": "e8935493bc997bc66005b4d85e1aa1fe"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/client/missionSite/listPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥云货场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoTest01：客户已存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复添加用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/client/basClient/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"page":1,"size":10,"search":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祥云货场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"clientName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AutoTest01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","liaison":"Tester","liaisonPhone":"12345678901"}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询委托导入信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_001_H</t>
+  </si>
+  <si>
+    <t>TC_004_H</t>
+  </si>
+  <si>
+    <t>TC_005_H</t>
+  </si>
+  <si>
+    <t>{"transDirection":"","procFlag":"10","procBatchId":"INT0000012","voucherIdLike":"zyh20210324","procTimeFrom":1614528000000,"procTimeTo":1619798399999,"page":1,"size":10}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"voucherId":"zyh20210324"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"companyCode"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"C00001"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"clientName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"page"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF098658"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"size"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF098658"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get接口调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post接口调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"transDirection":"","procFlag":"","procBatchId":"238uij","page":1,"size":10}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询不存在的委托导入信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/external/import/missionList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"size":0,"startRow":0,"endRow":0,"total":0,"pages":0,"list":[],"prePage":0,"nextPage":0,"isFirstPage":true,"isLastPage":true,"hasPreviousPage":false,"hasNextPage":false,"navigatePages":1,"navigatepageNums":[],"navigateFirstPage":0,"navigateLastPage":0,"firstPage":0,"lastPage":0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "missionId":"CQWT20112503105",
+    "missionCarrierCompanyName":"上海风策网络科技有限公司",
+    "searchStatus":"10,20,40,50,55,60,65,80,85,90,68,95,74,30,54,70,71,76,",
+    "missionStatus":"80",
+    "beginSiteProvince":"云南省-文山州-文山市",
+    "endSiteProvince":"云南省-文山州-马关县",
+    "clientBillNum":"",
+    "page":1,
+    "size":10
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询我的委托单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"missionId":"CQWT20112503105"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/client/missionM/listPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要委托</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/client/missionM/publish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_002_H</t>
+  </si>
+  <si>
+    <t>TC_003_H</t>
+  </si>
+  <si>
+    <t>TC_006_H</t>
+  </si>
+  <si>
+    <t>TC_007_H</t>
+  </si>
+  <si>
+    <t>TC_008_H</t>
+  </si>
+  <si>
+    <t>TC_009_H</t>
+  </si>
+  <si>
+    <t>{
+    "missionStatus":"60",
+    "clientCompanyCode":"C00001",
+    "clientCompanyName":"风策网络",
+    "biddingType":"10",
+    "biddingScope":"40",
+    "biddingStartTime":1616038451000,
+    "biddingEndTime":1616038751000,
+    "quoteType":"10",
+    "pickupTime":1617292800000,
+    "deliveryTime":1617292800000,
+    "dataSource":"10",
+    "transPrice":20000,
+    "transType":"20",
+    "transAmount":20000,
+    "otherAmount":0,
+    "transWeight":5,
+    "transCount":3,
+    "missionDate":1616038388000,
+    "missionEffectDate":1616038401000,
+    "missionEffectUserCode":"15208346663",
+    "actTransPrice":20000,
+    "actTransWeight":0,
+    "actTransAmount":0,
+    "actOtherAmount":0,
+    "actTransCount":0,
+    "biddingResultDisplay":"N",
+    "transDirection":"10",
+    "cancelType":"",
+    "remark":"",
+    "payType":"",
+    "settleType":"20",
+    "platId":"P00001",
+    "actClientCompanyCode":"",
+    "actClientCompanyName":"AutoTest01",
+    "transRequest":"zyh测试",
+    "transServiceType":"",
+    "ifBuildInovice":"",
+    "transTaxRate":0.09,
+    "feeTaxRate":0.06,
+    "invoiceTitle":"风策网络",
+    "invoiceTaxNum":"9999",
+    "clientBillNum":"zjxs20210401",
+    "voucherUpFlag":"",
+    "createUserCode":"13910001000",
+    "createDate":1616038388000,
+    "modiUserCode":"15208346663",
+    "modiDate":1616038401000,
+    "weightUnit":"",
+    "diffPrice":0,
+    "prepayAmount":0,
+    "businessUserCode":"",
+    "businessUserName":"",
+    "contractPhotoFileId":"",
+    "ifMissionManagement":"",
+    "mainMissionId":"",
+    "subkeyMissionStatus":"",
+    "subkeyAmount":"",
+    "specialMoney":0,
+    "specialExplain":"",
+    "ifAudit":"",
+    "shipDateId":"",
+    "ifTrace":"0",
+    "ifCommonTemplate":"",
+    "ifAppointment":"N",
+    "originalSource":"10",
+    "businessType":"",
+    "clientCompanyUserCode":"13910001000",
+    "clientCompanyUserName":"平台方1",
+    "receiptConfirmUserCode":"",
+    "receiptConfirmUserName":"",
+    "intBillId":"",
+    "ifMoreLine":0,
+    "beginSite":"",
+    "endSite":"",
+    "tspTransportDList":[
+    ],
+    "tspTransportQuotationList":[
+        {
+            "guid":39564,
+            "missionId":"",
+            "quotationId":"Q0121031800095",
+            "transBillId":"CQYD21031800122",
+            "quoteType":"10",
+            "missionCarrierCompanyCode":"C03077",
+            "missionCarrierCompanyName":"张小凡",
+            "carrierCompanyCode":"C03077",
+            "carrierCompanyName":"张小凡",
+            "quotationPrice":20000,
+            "quotationTime":1616038397000,
+            "arrivalDate":1616124600000,
+            "quotationStatus":"30",
+            "quotationTotalAmount":100000,
+            "ipAddress":"10.97.252.111",
+            "createUserCode":"15208346663",
+            "createDate":1616038398000,
+            "modiUserCode":"15208346663",
+            "modiDate":1616038396000,
+            "dataSource":"10",
+            "pickupTime":"",
+            "missionQuotationPrice":20000,
+            "minOffer":"",
+            "carrierIfTax":"Y",
+            "clientIfTax":"Y",
+            "platQuotationDesc":"",
+            "clientQuotationDesc":"",
+            "remark":""
+        }
+    ],
+    "orientList":[
+        {
+            "carrierCompanyCode":"C03077",
+            "carrierCompanyName":"张小凡"
+        }
+    ],
+    "fromService":"",
+    "transBillId":"CQYD21031800122",
+    "quotationCont":"",
+    "cont31":"",
+    "cont32":"",
+    "procBatchId":"",
+    "ifSend":"true",
+    "goodPropertyId":"槽钢",
+    "ifTax":"Y",
+    "minOffer":"",
+    "biddingTime":"5",
+    "needClearDispatch":"true",
+    "ifDirectConfirm":"false",
+    "ifSkipOperatorSet":"false",
+    "carrierTransPrice":0,
+    "carrierIfTax":"",
+    "carrierQuoteType":"",
+    "businessNodeOuts":[
+    ],
+    "biddingScopeStatus":"",
+    "containerNo":"",
+    "truckNum":"",
+    "checkType":"",
+    "cancelCause":"",
+    "cancelExplain":"",
+    "nodeRemark":"",
+    "dispatchUserCode":"",
+    "dispatchUserName":"",
+    "pricingMode":"",
+    "flagShowPrice":"",
+    "missionId":"",
+    "tspMissionDList":[
+        {
+            "missionId":"",
+            "missionSubid":"",
+            "missionSubstatus":"20",
+            "beginSiteProvince":"上海市-宝山区",
+            "beginSiteStorage":"aaa",
+            "beginSiteAddr":"上海市宝山区安琪儿联合幼稚园",
+            "beginSiteContract":"",
+            "beginSitePhone":"",
+            "pickupTime":1616038200000,
+            "endSiteProvince":"重庆市-北碚区",
+            "endSiteStorage":"bbb",
+            "endSiteAddr":"重庆市北碚区城乡建设委员会",
+            "endSiteContract":"平台方1",
+            "endSitePhone":"13910001000",
+            "deliveryTime":1616124600000,
+            "transSubWeight":5,
+            "transSubCount":3,
+            "transSubAmount":20000,
+            "actTransSubPrice":4000,
+            "actTransSubWeight":0,
+            "actTransSubCount":0,
+            "actTransSubOtherAmount":0,
+            "actTransSubAmount":0,
+            "putinTitle":"风策网络",
+            "createUserCode":"13910001000",
+            "createDate":1616038388000,
+            "modiUserCode":"15208346663",
+            "modiDate":1616038401000,
+            "remark":"",
+            "clientBillNum":"zjxs20210318",
+            "externalMissionId":"",
+            "actTransCount":0,
+            "mileage":0,
+            "platId":"P00001",
+            "clientBillSubnum":"",
+            "transBillSubid":"",
+            "policyTypeCode":"BD20090300001",
+            "transportType":"其他",
+            "tspMissionGoodsList":[
+                {
+                    "missionId":"",
+                    "missionSubid":"",
+                    "goodsId":"",
+                    "goodsStatus":"20",
+                    "productTypeId":"",
+                    "productTypeName":"槽钢",
+                    "goodsSpec1":"xxx",
+                    "goodsSpec2":"",
+                    "goodsSpec3":"",
+                    "goodsSpec4":"",
+                    "goodsSpec5":"",
+                    "goodsSpec6":"",
+                    "goodsSpec7":"cdcdcd",
+                    "goodsSpec8":"",
+                    "goodsSpec9":"",
+                    "goodsWeight":5,
+                    "goodsCount":3,
+                    "actGoodsWeight":0,
+                    "actGoodsCount":0,
+                    "remark":"",
+                    "createUserCode":"13910001000",
+                    "createDate":1616038388000,
+                    "createDeptCode":"",
+                    "modiUserCode":"",
+                    "modiDate":"",
+                    "modiDeptCode":"",
+                    "platId":"P00001",
+                    "clientBillSubnum":"",
+                    "goodProperty":"",
+                    "goodPropertyName":""
+                }
+            ],
+            "tspTransportGoodsList":[
+            ],
+            "tspTransportDispatchList":[
+            ]
+        }
+    ],
+    "IntBillId":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作失败,原因:外部单据号【zjxs20210401】已经使用!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托发布时单据不允许重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过所有条件查询客户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过仓库名查询常用地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布委托</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询委托单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线路招标管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线路招标查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_010_H</t>
+  </si>
+  <si>
+    <t>通过所有条件查询线路招标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/client/mission_line_mgr/tenderList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "missionLineTitle":"线路招标测试",
+    "priceBeginPeriod":"2021-02",
+    "priceEndPeriod":"2021-03",
+    "missionLineStatus":"60",
+    "page":1,
+    "size":10
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"missionLineTitle":"线路招标测试","priceBeginPeriod":"2021-03","priceEndPeriod":"2021-04"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规发布线路招标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布招标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_011_H</t>
+  </si>
+  <si>
+    <t>{
+    "missionLineTitle":"Autotest202104",
+    "biddingStartTime":1618416000000,
+    "biddingEndTime":1619712000000,
+    "priceBeginPeriod":"2021-04",
+    "priceEndPeriod":"2021-04",
+    "remark":"用于接口自动化测试",
+    "attachments":[
+        {
+            "dataSource":"10",
+            "fileName":"API自动化测试框架.docx",
+            "attachmentUrl":"https://filedemo118.wind56.com/group1/M00/00/8F/CmH8C2Blhi6AMtXyAABGaSNdQbA39.docx"
+        }
+    ],
+    "missionLineDList":[
+        {
+            "_id":0,
+            "missionLineGoods":[
+                {
+                    "_id":0,
+                    "productTypeName":"线材",
+                    "productTypeId":"XC03",
+                    "goodsSpec1":"10",
+                    "goodsWeight":"20",
+                    "goodsCount":"10"
+                }
+            ],
+            "beginSiteProvince":"重庆市-北碚区",
+            "warehouseName":"bbb",
+            "beginSiteAddr":"重庆市北碚区城乡建设委员会",
+            "endSiteProvince":"四川省-成都市-郫县",
+            "uninstallWarehouseName":"",
+            "endSiteAddr":"旺旺集团四川成都工业园区"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于接口自动化测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/client/mission_line_mgr/tender</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询委托导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看委托单详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/client/missionM/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"missionId":"CQWT20112603117"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"missionId":"CQWT20112603117"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的结算单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结算单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/client/t_tsp_settle_m/1/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "settleId":"JS210100022",
+    "carrierCompanyName":"上海运钢",
+    "invoiceNum":"",
+    "beginSettleDate":1609430400000,
+    "endSettleDate":1617292799999,
+    "settleStatus":"50",
+    "page":1,
+    "size":10,
+    "makeSettleCompanyType":"30"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"carrierCompanyName":"上海运钢"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_012_H</t>
+  </si>
+  <si>
+    <t>TC_013_H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +1101,76 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA31515"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0451A5"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF098658"/>
       <name val="仿宋"/>
       <family val="3"/>
       <charset val="134"/>
@@ -157,7 +1204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +1221,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,229 +1532,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B99FD8B-C9AA-44F8-9FDD-1170A2A22564}">
-  <dimension ref="A1:K174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B99FD8B-C9AA-44F8-9FDD-1170A2A22564}">
+  <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="22.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="33" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="12.33203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="22.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.44140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -710,8 +1971,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -720,8 +1982,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -730,8 +1993,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -740,8 +2004,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -750,8 +2015,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -760,8 +2026,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -770,8 +2037,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -780,8 +2048,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -790,8 +2059,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -800,8 +2070,9 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -810,8 +2081,9 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -820,8 +2092,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -830,8 +2103,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -840,8 +2114,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -850,8 +2125,9 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -860,8 +2136,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -870,8 +2147,9 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -880,8 +2158,9 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -890,8 +2169,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -900,8 +2180,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -910,8 +2191,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -920,8 +2202,9 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -930,8 +2213,9 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -940,8 +2224,9 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -950,8 +2235,9 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -960,8 +2246,9 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -970,8 +2257,9 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -980,8 +2268,9 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -990,8 +2279,9 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1000,8 +2290,9 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1010,8 +2301,9 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1020,8 +2312,9 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1030,8 +2323,9 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1040,8 +2334,9 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1050,8 +2345,9 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1060,8 +2356,9 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1070,8 +2367,9 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1080,8 +2378,9 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1090,8 +2389,9 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1100,8 +2400,9 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1110,8 +2411,9 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1120,8 +2422,9 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1130,8 +2433,9 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1140,8 +2444,9 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1150,8 +2455,9 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1160,8 +2466,9 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1170,8 +2477,9 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1180,8 +2488,9 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1190,8 +2499,9 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1200,8 +2510,9 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1210,8 +2521,9 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1220,8 +2532,9 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1230,8 +2543,9 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1240,8 +2554,9 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1250,8 +2565,9 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1260,8 +2576,9 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1270,8 +2587,9 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1280,8 +2598,9 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1290,8 +2609,9 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1300,8 +2620,9 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1310,8 +2631,9 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1320,8 +2642,9 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1330,8 +2653,9 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1340,8 +2664,9 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1350,8 +2675,9 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1360,8 +2686,9 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1370,8 +2697,9 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1380,8 +2708,9 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1390,8 +2719,9 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1400,8 +2730,9 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1410,8 +2741,9 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1420,8 +2752,9 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1430,8 +2763,9 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1440,8 +2774,9 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1450,8 +2785,9 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1460,8 +2796,9 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1470,8 +2807,9 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1480,8 +2818,9 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1490,8 +2829,9 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1500,8 +2840,9 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1510,8 +2851,9 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1520,8 +2862,9 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1530,8 +2873,9 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1540,8 +2884,9 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1550,8 +2895,9 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1560,8 +2906,9 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1570,8 +2917,9 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1580,8 +2928,9 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1590,8 +2939,9 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1600,8 +2950,9 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1610,8 +2961,9 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1620,8 +2972,9 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1630,8 +2983,9 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1640,8 +2994,9 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1650,8 +3005,9 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1660,8 +3016,9 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1670,8 +3027,9 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1680,8 +3038,9 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1690,8 +3049,9 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1700,8 +3060,9 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1710,8 +3071,9 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1720,8 +3082,9 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1730,8 +3093,9 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1740,8 +3104,9 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1750,8 +3115,9 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1760,8 +3126,9 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1770,8 +3137,9 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1780,8 +3148,9 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1790,8 +3159,9 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1800,8 +3170,9 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1810,8 +3181,9 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1820,8 +3192,9 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1830,8 +3203,9 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1840,8 +3214,9 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1850,8 +3225,9 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1860,8 +3236,9 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1870,8 +3247,9 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1880,8 +3258,9 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1890,8 +3269,9 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1900,8 +3280,9 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1910,8 +3291,9 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1920,8 +3302,9 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1930,8 +3313,9 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1940,8 +3324,9 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1950,8 +3335,9 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1960,8 +3346,9 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1970,8 +3357,9 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1980,8 +3368,9 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1990,8 +3379,9 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2000,8 +3390,9 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2010,8 +3401,9 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2020,8 +3412,9 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2030,8 +3423,9 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2040,8 +3434,9 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2050,8 +3445,9 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2060,8 +3456,9 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2070,8 +3467,9 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2080,8 +3478,9 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2090,8 +3489,9 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2100,8 +3500,9 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2110,8 +3511,9 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2120,8 +3522,9 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2130,8 +3533,9 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2140,8 +3544,9 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2150,8 +3555,9 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2160,8 +3566,9 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2170,8 +3577,9 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2180,8 +3588,9 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2190,8 +3599,9 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2200,8 +3610,9 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2210,8 +3621,9 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2220,8 +3632,9 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2230,8 +3643,9 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2240,8 +3654,9 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2250,8 +3665,9 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2260,8 +3676,9 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2270,8 +3687,9 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2280,10 +3698,113 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{0E797AC6-37CE-4F17-9870-D83776E1B6C9}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{6D4E3B06-D571-4C48-9032-F8BFF6D251E7}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{BA0CD87F-E290-4A09-8215-687EE03585D8}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{10D84481-CB6E-4964-A1F2-15D4B02175AF}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{5F6BD507-8EE7-49B8-BC23-B917CFF4FA8C}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{72A8533D-D570-46A4-9439-B7BBBDD4CF4C}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{505A1F25-DA7D-454D-90CD-8BBD1FED20A5}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{7631B34D-7E20-4AF7-B60E-3C6E450C6C73}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{9C8F4821-37EC-4CE0-BD53-D77A8C41AA78}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{4D0BB8EE-CE88-48FD-8D0A-72753ED2F4AE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E0C0C5-B6B1-4EDC-9450-EA3E00FE8A0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05521200-A3EA-451E-B778-9C6773AAC342}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476F41BD-C7C0-4F98-8814-33BE98DDFDA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>